--- a/실무_엑셀_예제_파일/Chapter07/07-013.xlsx
+++ b/실무_엑셀_예제_파일/Chapter07/07-013.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info\Google Drive\@ 오빠두 실무엑셀 - 출판\@ 예제파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078E5C63-D63F-4FB7-8E5E-D7512840E6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2CE443-EEB3-400C-B191-E3178C87BA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22680" windowHeight="14736" xr2:uid="{15CA6569-7FDF-4AF2-B600-7D88E97E990E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{15CA6569-7FDF-4AF2-B600-7D88E97E990E}"/>
   </bookViews>
   <sheets>
     <sheet name="성적조회" sheetId="8" r:id="rId1"/>
@@ -24,19 +24,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'3반'!$B$1:$C$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'4반'!$B$1:$C$13</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -201,15 +192,15 @@
     <t>이태희</t>
   </si>
   <si>
-    <t>1반</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>검색 대상 :</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>하나초등학교 성적조회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4반</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -688,35 +679,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF4B828-1205-44F3-B698-EFF768BA8277}">
   <dimension ref="B1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.19921875" customWidth="1"/>
-    <col min="2" max="2" width="7.8984375" customWidth="1"/>
-    <col min="3" max="3" width="12.69921875" customWidth="1"/>
-    <col min="4" max="4" width="11.296875" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" customWidth="1"/>
+    <col min="2" max="2" width="7.9140625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="2:4" ht="7.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:4" ht="7.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="2:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C4" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="9" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -727,40 +720,70 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C7" s="2" t="str">
+        <f ca="1">VLOOKUP(B7, INDIRECT("'"&amp; $D$4 &amp; "'!$A$1:$C$13"), 2, 0)</f>
+        <v>최라윤</v>
+      </c>
+      <c r="D7" s="2">
+        <f ca="1">VLOOKUP(B7, INDIRECT("'"&amp; $D$4 &amp;"'!$A$1:$C$13"), 3, 0)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B8" s="2">
         <v>2</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C8" s="2" t="str">
+        <f t="shared" ref="C8:C11" ca="1" si="0">VLOOKUP(B8, INDIRECT("'"&amp; $D$4 &amp; "'!$A$1:$C$13"), 2, 0)</f>
+        <v>최소율</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" ref="D8:D11" ca="1" si="1">VLOOKUP(B8, INDIRECT("'"&amp; $D$4 &amp;"'!$A$1:$C$13"), 3, 0)</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B9" s="2">
         <v>3</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C9" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>박민강</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B10" s="2">
         <v>4</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C10" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>최하영</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B11" s="2">
         <v>5</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="C11" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>정도훈</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -775,14 +798,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B4BE0B-AB76-492B-BB49-690DC8F5E2A1}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -793,7 +818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -804,7 +829,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -815,7 +840,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -826,7 +851,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -837,7 +862,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -848,7 +873,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -859,7 +884,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -870,7 +895,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -881,7 +906,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -892,7 +917,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -903,7 +928,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -914,7 +939,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -937,12 +962,12 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -953,7 +978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -964,7 +989,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -975,7 +1000,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -986,7 +1011,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -997,7 +1022,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1008,7 +1033,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1019,7 +1044,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1030,7 +1055,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1041,7 +1066,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1052,7 +1077,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1063,7 +1088,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1074,7 +1099,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1097,12 +1122,12 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1113,7 +1138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1124,7 +1149,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1135,7 +1160,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1146,7 +1171,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1157,7 +1182,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1168,7 +1193,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1179,7 +1204,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1190,7 +1215,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1201,7 +1226,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1212,7 +1237,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1223,7 +1248,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1234,7 +1259,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1257,12 +1282,12 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1273,7 +1298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1284,7 +1309,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1295,7 +1320,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1306,7 +1331,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1317,7 +1342,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1328,7 +1353,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1339,7 +1364,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1350,7 +1375,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1361,7 +1386,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1372,7 +1397,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1383,7 +1408,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1394,7 +1419,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>12</v>
       </c>
